--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2747.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2747.xlsx
@@ -354,7 +354,7 @@
         <v>2.412145161498659</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.370165008615687</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2747.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2747.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.158459116276443</v>
+        <v>1.843543291091919</v>
       </c>
       <c r="B1">
-        <v>2.412145161498659</v>
+        <v>2.554818630218506</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.785227298736572</v>
       </c>
       <c r="D1">
-        <v>2.370165008615687</v>
+        <v>3.336065292358398</v>
       </c>
       <c r="E1">
-        <v>1.222541475458616</v>
+        <v>0.9857743978500366</v>
       </c>
     </row>
   </sheetData>
